--- a/test.xlsx
+++ b/test.xlsx
@@ -1,27 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minwei/Documents/Q A/Github/Test/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="14800" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -50,15 +69,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -100,12 +124,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -135,12 +159,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -343,37 +367,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -368,15 +368,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -368,15 +368,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -385,6 +385,9 @@
       </c>
       <c r="C1">
         <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minwei/Documents/Q A/Github/Test/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="14800" windowHeight="8020"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +13,6 @@
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +22,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,15 +360,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -390,6 +382,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -402,7 +399,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -415,7 +412,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -18,6 +18,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
@@ -385,6 +394,11 @@
     <row r="3" spans="1:4">
       <c r="A3">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minwei/Documents/Q A/Github/Test/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="8025"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="14800" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +18,9 @@
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -23,7 +31,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>ab</t>
+    <t>cd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -31,7 +39,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,12 +380,12 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -391,12 +399,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -413,7 +421,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -426,7 +434,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -29,12 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -404,11 +399,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minwei/Documents/Q A/Github/Test/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="14800" windowHeight="8020"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +13,6 @@
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +23,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>cd</t>
+    <t>ab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -39,7 +31,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,15 +369,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -399,13 +391,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -421,7 +408,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -434,7 +421,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minwei/Documents/Q A/Github/Test/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="8025"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="14800" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +18,9 @@
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -21,17 +29,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,15 +381,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -391,9 +403,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -408,7 +425,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -421,7 +438,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -21,9 +21,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ef</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
@@ -394,6 +398,11 @@
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minwei/Documents/Q A/Github/Test/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="8025"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="14800" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +18,9 @@
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -21,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ab</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,12 +38,16 @@
     <t>ef</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>！@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,15 +385,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -395,14 +407,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -417,7 +434,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -430,7 +447,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -21,13 +21,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
@@ -403,6 +407,11 @@
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ab</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,12 +34,16 @@
     <t>#$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>!@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +53,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,14 +83,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -380,7 +395,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
@@ -413,9 +428,15 @@
       <c r="A7" t="s">
         <v>2</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
